--- a/Marketing/ncsu.roomme.xlsx
+++ b/Marketing/ncsu.roomme.xlsx
@@ -5652,7 +5652,7 @@
         </is>
       </c>
       <c r="B522" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="523">
@@ -5662,7 +5662,7 @@
         </is>
       </c>
       <c r="B523" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="524">
@@ -5672,7 +5672,7 @@
         </is>
       </c>
       <c r="B524" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="525">
@@ -5682,7 +5682,7 @@
         </is>
       </c>
       <c r="B525" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526">
@@ -5692,7 +5692,7 @@
         </is>
       </c>
       <c r="B526" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527">
@@ -5702,7 +5702,7 @@
         </is>
       </c>
       <c r="B527" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528">
@@ -5712,7 +5712,7 @@
         </is>
       </c>
       <c r="B528" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529">
@@ -5722,7 +5722,7 @@
         </is>
       </c>
       <c r="B529" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="530">
@@ -5732,7 +5732,7 @@
         </is>
       </c>
       <c r="B530" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="531">
@@ -5742,7 +5742,7 @@
         </is>
       </c>
       <c r="B531" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="532">
@@ -5752,7 +5752,7 @@
         </is>
       </c>
       <c r="B532" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="533">
@@ -5762,7 +5762,7 @@
         </is>
       </c>
       <c r="B533" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="534">
@@ -5772,7 +5772,7 @@
         </is>
       </c>
       <c r="B534" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="535">
@@ -5782,7 +5782,7 @@
         </is>
       </c>
       <c r="B535" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="536">
@@ -5792,7 +5792,7 @@
         </is>
       </c>
       <c r="B536" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="537">
@@ -5802,7 +5802,7 @@
         </is>
       </c>
       <c r="B537" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="538">
@@ -5812,7 +5812,7 @@
         </is>
       </c>
       <c r="B538" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539">
@@ -5822,7 +5822,7 @@
         </is>
       </c>
       <c r="B539" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540">
@@ -5832,7 +5832,7 @@
         </is>
       </c>
       <c r="B540" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="541">
@@ -5842,7 +5842,7 @@
         </is>
       </c>
       <c r="B541" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542">

--- a/Marketing/ncsu.roomme.xlsx
+++ b/Marketing/ncsu.roomme.xlsx
@@ -5852,7 +5852,7 @@
         </is>
       </c>
       <c r="B542" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543">
@@ -5862,7 +5862,7 @@
         </is>
       </c>
       <c r="B543" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544">
@@ -5872,7 +5872,7 @@
         </is>
       </c>
       <c r="B544" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="545">
@@ -5882,7 +5882,7 @@
         </is>
       </c>
       <c r="B545" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="546">
@@ -5892,7 +5892,7 @@
         </is>
       </c>
       <c r="B546" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547">
@@ -5902,7 +5902,7 @@
         </is>
       </c>
       <c r="B547" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548">
@@ -5912,7 +5912,7 @@
         </is>
       </c>
       <c r="B548" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549">
@@ -5922,7 +5922,7 @@
         </is>
       </c>
       <c r="B549" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550">
@@ -5932,7 +5932,7 @@
         </is>
       </c>
       <c r="B550" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="551">
@@ -5942,7 +5942,7 @@
         </is>
       </c>
       <c r="B551" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="552">
@@ -5952,7 +5952,7 @@
         </is>
       </c>
       <c r="B552" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="553">
@@ -5962,7 +5962,7 @@
         </is>
       </c>
       <c r="B553" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="554">
@@ -5972,7 +5972,7 @@
         </is>
       </c>
       <c r="B554" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="555">
@@ -5982,7 +5982,7 @@
         </is>
       </c>
       <c r="B555" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="556">
@@ -5992,7 +5992,7 @@
         </is>
       </c>
       <c r="B556" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="557">
@@ -6002,7 +6002,7 @@
         </is>
       </c>
       <c r="B557" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="558">
@@ -6012,7 +6012,7 @@
         </is>
       </c>
       <c r="B558" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="559">
@@ -6022,7 +6022,7 @@
         </is>
       </c>
       <c r="B559" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560">
@@ -6032,7 +6032,7 @@
         </is>
       </c>
       <c r="B560" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="561">
@@ -6042,7 +6042,7 @@
         </is>
       </c>
       <c r="B561" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="562">
@@ -6052,7 +6052,7 @@
         </is>
       </c>
       <c r="B562" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="563">
@@ -6062,7 +6062,7 @@
         </is>
       </c>
       <c r="B563" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564">
@@ -6072,7 +6072,7 @@
         </is>
       </c>
       <c r="B564" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="565">
@@ -6082,7 +6082,7 @@
         </is>
       </c>
       <c r="B565" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="566">
@@ -6092,7 +6092,7 @@
         </is>
       </c>
       <c r="B566" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="567">
@@ -6102,7 +6102,7 @@
         </is>
       </c>
       <c r="B567" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="568">
@@ -6112,7 +6112,7 @@
         </is>
       </c>
       <c r="B568" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="569">
@@ -6122,7 +6122,7 @@
         </is>
       </c>
       <c r="B569" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="570">
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="B570" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="571">
@@ -6142,7 +6142,7 @@
         </is>
       </c>
       <c r="B571" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="572">
@@ -6152,7 +6152,7 @@
         </is>
       </c>
       <c r="B572" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="573">
@@ -6162,7 +6162,7 @@
         </is>
       </c>
       <c r="B573" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="574">
@@ -6172,7 +6172,7 @@
         </is>
       </c>
       <c r="B574" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="575">
@@ -6182,7 +6182,7 @@
         </is>
       </c>
       <c r="B575" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="576">
@@ -6192,7 +6192,7 @@
         </is>
       </c>
       <c r="B576" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="577">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B577" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="578">
@@ -6212,7 +6212,7 @@
         </is>
       </c>
       <c r="B578" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="579">
@@ -6222,7 +6222,7 @@
         </is>
       </c>
       <c r="B579" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="580">
@@ -6232,7 +6232,7 @@
         </is>
       </c>
       <c r="B580" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="581">
@@ -6242,7 +6242,7 @@
         </is>
       </c>
       <c r="B581" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="582">
@@ -6252,7 +6252,7 @@
         </is>
       </c>
       <c r="B582" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="583">
@@ -6262,7 +6262,7 @@
         </is>
       </c>
       <c r="B583" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="584">
@@ -6272,7 +6272,7 @@
         </is>
       </c>
       <c r="B584" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="585">
@@ -6282,7 +6282,7 @@
         </is>
       </c>
       <c r="B585" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586">
@@ -6292,7 +6292,7 @@
         </is>
       </c>
       <c r="B586" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="587">
@@ -6302,7 +6302,7 @@
         </is>
       </c>
       <c r="B587" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="588">
@@ -6312,7 +6312,7 @@
         </is>
       </c>
       <c r="B588" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="589">
@@ -6322,7 +6322,7 @@
         </is>
       </c>
       <c r="B589" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="590">
@@ -6332,7 +6332,7 @@
         </is>
       </c>
       <c r="B590" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="591">
@@ -6342,7 +6342,7 @@
         </is>
       </c>
       <c r="B591" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="592">
@@ -6352,7 +6352,7 @@
         </is>
       </c>
       <c r="B592" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="593">
@@ -6362,7 +6362,7 @@
         </is>
       </c>
       <c r="B593" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="594">
@@ -6372,7 +6372,7 @@
         </is>
       </c>
       <c r="B594" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="595">
@@ -6382,7 +6382,7 @@
         </is>
       </c>
       <c r="B595" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="596">
@@ -6392,7 +6392,7 @@
         </is>
       </c>
       <c r="B596" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="597">
@@ -6402,7 +6402,7 @@
         </is>
       </c>
       <c r="B597" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="598">
@@ -6412,7 +6412,7 @@
         </is>
       </c>
       <c r="B598" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="599">
@@ -6422,7 +6422,7 @@
         </is>
       </c>
       <c r="B599" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="600">
@@ -6432,7 +6432,7 @@
         </is>
       </c>
       <c r="B600" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="601">
@@ -6442,7 +6442,7 @@
         </is>
       </c>
       <c r="B601" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="602">
@@ -6452,7 +6452,7 @@
         </is>
       </c>
       <c r="B602" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="603">
@@ -6462,7 +6462,7 @@
         </is>
       </c>
       <c r="B603" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="604">
@@ -6472,7 +6472,7 @@
         </is>
       </c>
       <c r="B604" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="605">
@@ -6482,7 +6482,7 @@
         </is>
       </c>
       <c r="B605" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="606">
@@ -6492,7 +6492,7 @@
         </is>
       </c>
       <c r="B606" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="607">
@@ -6502,7 +6502,7 @@
         </is>
       </c>
       <c r="B607" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="608">
@@ -6512,7 +6512,7 @@
         </is>
       </c>
       <c r="B608" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="609">
@@ -6522,7 +6522,7 @@
         </is>
       </c>
       <c r="B609" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="610">
@@ -6532,7 +6532,7 @@
         </is>
       </c>
       <c r="B610" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="611">
@@ -6542,7 +6542,7 @@
         </is>
       </c>
       <c r="B611" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="612">
@@ -6552,7 +6552,7 @@
         </is>
       </c>
       <c r="B612" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="613">
@@ -6562,7 +6562,7 @@
         </is>
       </c>
       <c r="B613" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="614">
@@ -6572,7 +6572,7 @@
         </is>
       </c>
       <c r="B614" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="615">
@@ -6582,7 +6582,7 @@
         </is>
       </c>
       <c r="B615" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="616">
@@ -6592,7 +6592,7 @@
         </is>
       </c>
       <c r="B616" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="617">
@@ -6602,7 +6602,7 @@
         </is>
       </c>
       <c r="B617" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="618">
@@ -6612,7 +6612,7 @@
         </is>
       </c>
       <c r="B618" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="619">
@@ -6622,7 +6622,7 @@
         </is>
       </c>
       <c r="B619" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="620">
@@ -6632,7 +6632,7 @@
         </is>
       </c>
       <c r="B620" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="621">
@@ -6642,7 +6642,7 @@
         </is>
       </c>
       <c r="B621" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="622">
@@ -6652,7 +6652,7 @@
         </is>
       </c>
       <c r="B622" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="623">
@@ -6662,7 +6662,7 @@
         </is>
       </c>
       <c r="B623" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="624">
@@ -6672,7 +6672,7 @@
         </is>
       </c>
       <c r="B624" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="625">
@@ -6682,7 +6682,7 @@
         </is>
       </c>
       <c r="B625" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="626">
@@ -6692,7 +6692,7 @@
         </is>
       </c>
       <c r="B626" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="627">
@@ -6702,7 +6702,7 @@
         </is>
       </c>
       <c r="B627" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="628">
@@ -6712,7 +6712,7 @@
         </is>
       </c>
       <c r="B628" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="629">
@@ -6722,7 +6722,7 @@
         </is>
       </c>
       <c r="B629" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="630">
@@ -6732,7 +6732,7 @@
         </is>
       </c>
       <c r="B630" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="631">
@@ -6742,7 +6742,7 @@
         </is>
       </c>
       <c r="B631" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="632">
@@ -6752,7 +6752,7 @@
         </is>
       </c>
       <c r="B632" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="633">
@@ -6762,7 +6762,7 @@
         </is>
       </c>
       <c r="B633" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="634">
@@ -6772,7 +6772,7 @@
         </is>
       </c>
       <c r="B634" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="635">
@@ -6782,7 +6782,7 @@
         </is>
       </c>
       <c r="B635" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="636">
@@ -6792,7 +6792,7 @@
         </is>
       </c>
       <c r="B636" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="637">
@@ -6802,7 +6802,7 @@
         </is>
       </c>
       <c r="B637" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="638">
@@ -6812,7 +6812,7 @@
         </is>
       </c>
       <c r="B638" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="639">
@@ -6822,7 +6822,7 @@
         </is>
       </c>
       <c r="B639" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="640">
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="B640" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="641">
@@ -6842,7 +6842,7 @@
         </is>
       </c>
       <c r="B641" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="642">
@@ -6852,7 +6852,7 @@
         </is>
       </c>
       <c r="B642" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="643">
@@ -6862,7 +6862,7 @@
         </is>
       </c>
       <c r="B643" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="644">
@@ -6872,7 +6872,7 @@
         </is>
       </c>
       <c r="B644" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="645">
@@ -6882,7 +6882,7 @@
         </is>
       </c>
       <c r="B645" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="646">
@@ -6892,7 +6892,7 @@
         </is>
       </c>
       <c r="B646" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="647">
@@ -6902,7 +6902,7 @@
         </is>
       </c>
       <c r="B647" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="648">
@@ -6912,7 +6912,7 @@
         </is>
       </c>
       <c r="B648" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="649">
@@ -6922,7 +6922,7 @@
         </is>
       </c>
       <c r="B649" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="650">
@@ -6932,7 +6932,7 @@
         </is>
       </c>
       <c r="B650" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="651">
@@ -6942,7 +6942,7 @@
         </is>
       </c>
       <c r="B651" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="652">
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="B652" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="653">
@@ -6962,7 +6962,7 @@
         </is>
       </c>
       <c r="B653" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="654">
@@ -6972,7 +6972,7 @@
         </is>
       </c>
       <c r="B654" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="655">
@@ -6982,7 +6982,7 @@
         </is>
       </c>
       <c r="B655" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="656">
@@ -6992,7 +6992,7 @@
         </is>
       </c>
       <c r="B656" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="657">
@@ -7002,7 +7002,7 @@
         </is>
       </c>
       <c r="B657" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="658">
@@ -7012,7 +7012,7 @@
         </is>
       </c>
       <c r="B658" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="659">
@@ -7022,7 +7022,7 @@
         </is>
       </c>
       <c r="B659" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="660">
@@ -7032,7 +7032,7 @@
         </is>
       </c>
       <c r="B660" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="661">
@@ -7042,7 +7042,7 @@
         </is>
       </c>
       <c r="B661" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="662">

--- a/Marketing/ncsu.roomme.xlsx
+++ b/Marketing/ncsu.roomme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B475"/>
+  <dimension ref="A1:B447"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>dwmartin70</t>
+          <t>tamrynlael</t>
         </is>
       </c>
       <c r="B2" t="b">
@@ -458,7 +458,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ella_marvin</t>
+          <t>ncsu.engineer</t>
         </is>
       </c>
       <c r="B3" t="b">
@@ -468,7 +468,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>lindseylettt</t>
+          <t>molly.kraska</t>
         </is>
       </c>
       <c r="B4" t="b">
@@ -478,7 +478,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>edwardamarisa</t>
+          <t>gabekale</t>
         </is>
       </c>
       <c r="B5" t="b">
@@ -488,7 +488,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>henry_odland</t>
+          <t>blakely.sherrill</t>
         </is>
       </c>
       <c r="B6" t="b">
@@ -498,7 +498,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>oliviamonetmunson</t>
+          <t>kdot_da_kid</t>
         </is>
       </c>
       <c r="B7" t="b">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>charlie28366</t>
+          <t>elise.martineau</t>
         </is>
       </c>
       <c r="B8" t="b">
@@ -518,7 +518,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ncsu.engineer</t>
+          <t>owen_sandlin</t>
         </is>
       </c>
       <c r="B9" t="b">
@@ -528,7 +528,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ulise22</t>
+          <t>gracehiteee</t>
         </is>
       </c>
       <c r="B10" t="b">
@@ -538,7 +538,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>neo_jar</t>
+          <t>grace_krum</t>
         </is>
       </c>
       <c r="B11" t="b">
@@ -548,7 +548,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>brennanhuffmann</t>
+          <t>caroline.droke</t>
         </is>
       </c>
       <c r="B12" t="b">
@@ -558,7 +558,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>m.floyd13</t>
+          <t>kate.robinson04</t>
         </is>
       </c>
       <c r="B13" t="b">
@@ -568,7 +568,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>carolinematthewsss</t>
+          <t>jennastaudt</t>
         </is>
       </c>
       <c r="B14" t="b">
@@ -578,7 +578,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>darse.rajani</t>
+          <t>emma.carr22</t>
         </is>
       </c>
       <c r="B15" t="b">
@@ -588,7 +588,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>xo_.syd</t>
+          <t>paytonnchapman</t>
         </is>
       </c>
       <c r="B16" t="b">
@@ -598,7 +598,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>laney__elizabeth</t>
+          <t>elsa.feld</t>
         </is>
       </c>
       <c r="B17" t="b">
@@ -608,7 +608,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ava.guadagno</t>
+          <t>lluke_moore</t>
         </is>
       </c>
       <c r="B18" t="b">
@@ -618,7 +618,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>jay_linehan17</t>
+          <t>maxbnovak</t>
         </is>
       </c>
       <c r="B19" t="b">
@@ -628,7 +628,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>dwwballroom</t>
+          <t>sydneysmithwick</t>
         </is>
       </c>
       <c r="B20" t="b">
@@ -638,7 +638,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>abby.lee28</t>
+          <t>jessfassino</t>
         </is>
       </c>
       <c r="B21" t="b">
@@ -648,7 +648,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>carlie.kern</t>
+          <t>jacobh.163</t>
         </is>
       </c>
       <c r="B22" t="b">
@@ -658,7 +658,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>carlotta_cs_sk8</t>
+          <t>theanthonyma</t>
         </is>
       </c>
       <c r="B23" t="b">
@@ -668,7 +668,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>alejandro.comas_</t>
+          <t>sarahneelyyy</t>
         </is>
       </c>
       <c r="B24" t="b">
@@ -678,7 +678,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>tushar_abraham</t>
+          <t>ryannagaraj</t>
         </is>
       </c>
       <c r="B25" t="b">
@@ -688,7 +688,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>jodia2050</t>
+          <t>raj.dhanjal21</t>
         </is>
       </c>
       <c r="B26" t="b">
@@ -698,7 +698,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>connor__b17</t>
+          <t>bm_janet</t>
         </is>
       </c>
       <c r="B27" t="b">
@@ -708,7 +708,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>yaseenheikal</t>
+          <t>holly9281</t>
         </is>
       </c>
       <c r="B28" t="b">
@@ -718,7 +718,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>parker_seay23</t>
+          <t>s_.arango</t>
         </is>
       </c>
       <c r="B29" t="b">
@@ -728,7 +728,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>elementtrey</t>
+          <t>kelsey.r.willis</t>
         </is>
       </c>
       <c r="B30" t="b">
@@ -738,7 +738,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>tanner.anderson05</t>
+          <t>jjvondette</t>
         </is>
       </c>
       <c r="B31" t="b">
@@ -748,7 +748,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>hall_carson04</t>
+          <t>kitty_w_illism477788</t>
         </is>
       </c>
       <c r="B32" t="b">
@@ -758,7 +758,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>maddieemmett_</t>
+          <t>beccacarper</t>
         </is>
       </c>
       <c r="B33" t="b">
@@ -768,7 +768,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>taquandewberry</t>
+          <t>rjtklein</t>
         </is>
       </c>
       <c r="B34" t="b">
@@ -778,7 +778,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>bo.brigman</t>
+          <t>nicoledillis</t>
         </is>
       </c>
       <c r="B35" t="b">
@@ -788,7 +788,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>johnlloydhaney</t>
+          <t>therealfatdaddykayy</t>
         </is>
       </c>
       <c r="B36" t="b">
@@ -798,7 +798,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>arturogch04</t>
+          <t>madi.g27</t>
         </is>
       </c>
       <c r="B37" t="b">
@@ -808,7 +808,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>naathann_s</t>
+          <t>matthew_agarwala</t>
         </is>
       </c>
       <c r="B38" t="b">
@@ -818,7 +818,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>erinn.elisee</t>
+          <t>annamariecoxusa</t>
         </is>
       </c>
       <c r="B39" t="b">
@@ -828,7 +828,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>nathanwastie</t>
+          <t>madysimon</t>
         </is>
       </c>
       <c r="B40" t="b">
@@ -838,7 +838,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ryleestapletonnn</t>
+          <t>braden_brown0308</t>
         </is>
       </c>
       <c r="B41" t="b">
@@ -848,7 +848,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>_danielweeks_</t>
+          <t>will._williams</t>
         </is>
       </c>
       <c r="B42" t="b">
@@ -858,7 +858,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>silaschristenbury</t>
+          <t>katienwilsonn</t>
         </is>
       </c>
       <c r="B43" t="b">
@@ -868,7 +868,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>connorcorrigan917</t>
+          <t>duntone22</t>
         </is>
       </c>
       <c r="B44" t="b">
@@ -878,7 +878,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>xime_cace</t>
+          <t>farriswheel_03</t>
         </is>
       </c>
       <c r="B45" t="b">
@@ -888,7 +888,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>katevanfarowe</t>
+          <t>abbie.fortson</t>
         </is>
       </c>
       <c r="B46" t="b">
@@ -898,7 +898,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>fleming.fulford</t>
+          <t>mandi.bradsher</t>
         </is>
       </c>
       <c r="B47" t="b">
@@ -908,7 +908,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>bhiatt30</t>
+          <t>adiengelbrechtt</t>
         </is>
       </c>
       <c r="B48" t="b">
@@ -918,7 +918,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>j_rue7</t>
+          <t>jacoblynch3</t>
         </is>
       </c>
       <c r="B49" t="b">
@@ -928,7 +928,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>erikaajenkinss</t>
+          <t>ellieburnetttt</t>
         </is>
       </c>
       <c r="B50" t="b">
@@ -938,7 +938,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>kiaraelise__</t>
+          <t>skylar_hart13</t>
         </is>
       </c>
       <c r="B51" t="b">
@@ -948,7 +948,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>reginareneecapell</t>
+          <t>cooperblanton11</t>
         </is>
       </c>
       <c r="B52" t="b">
@@ -958,7 +958,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>loganjones_01</t>
+          <t>jax_powell05</t>
         </is>
       </c>
       <c r="B53" t="b">
@@ -968,7 +968,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>_katieyarborough_</t>
+          <t>sarahkatepoor</t>
         </is>
       </c>
       <c r="B54" t="b">
@@ -978,7 +978,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>_gabrial.corley_</t>
+          <t>fabbietabbie</t>
         </is>
       </c>
       <c r="B55" t="b">
@@ -988,7 +988,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>j.nelson1045</t>
+          <t>l4tishaaa</t>
         </is>
       </c>
       <c r="B56" t="b">
@@ -998,7 +998,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>carolineshoee</t>
+          <t>kateforddd</t>
         </is>
       </c>
       <c r="B57" t="b">
@@ -1008,7 +1008,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>connor.garhammer</t>
+          <t>carolinawahoo</t>
         </is>
       </c>
       <c r="B58" t="b">
@@ -1018,7 +1018,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>maddiecollinsss</t>
+          <t>john_e_cole</t>
         </is>
       </c>
       <c r="B59" t="b">
@@ -1028,7 +1028,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>matttoosmoove</t>
+          <t>walkerharris763</t>
         </is>
       </c>
       <c r="B60" t="b">
@@ -1038,7 +1038,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>miavaughann</t>
+          <t>austin11williams</t>
         </is>
       </c>
       <c r="B61" t="b">
@@ -1048,7 +1048,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>lele.hend_</t>
+          <t>sophia___reeves</t>
         </is>
       </c>
       <c r="B62" t="b">
@@ -1058,7 +1058,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>gracepittss</t>
+          <t>jackradziwicz</t>
         </is>
       </c>
       <c r="B63" t="b">
@@ -1068,7 +1068,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>ninaavila</t>
+          <t>alliegervase</t>
         </is>
       </c>
       <c r="B64" t="b">
@@ -1078,7 +1078,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>cbock28</t>
+          <t>amanda.turner_04</t>
         </is>
       </c>
       <c r="B65" t="b">
@@ -1088,7 +1088,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ansleybombien</t>
+          <t>maryykjenstad</t>
         </is>
       </c>
       <c r="B66" t="b">
@@ -1098,7 +1098,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>erin__hall</t>
+          <t>brooke_k_johnson</t>
         </is>
       </c>
       <c r="B67" t="b">
@@ -1108,7 +1108,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>ashleymurphyy</t>
+          <t>teague.lenihan</t>
         </is>
       </c>
       <c r="B68" t="b">
@@ -1118,7 +1118,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>ellie.balts</t>
+          <t>jfalk824</t>
         </is>
       </c>
       <c r="B69" t="b">
@@ -1128,7 +1128,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>michael.gilbert15</t>
+          <t>saniamusti</t>
         </is>
       </c>
       <c r="B70" t="b">
@@ -1138,7 +1138,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>abby__kidder</t>
+          <t>jakec_13</t>
         </is>
       </c>
       <c r="B71" t="b">
@@ -1148,7 +1148,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>kateeberger</t>
+          <t>laurenherbstt</t>
         </is>
       </c>
       <c r="B72" t="b">
@@ -1158,7 +1158,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>wettlinglori</t>
+          <t>trich.13</t>
         </is>
       </c>
       <c r="B73" t="b">
@@ -1168,7 +1168,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>iq.6900</t>
+          <t>grace_matthews14</t>
         </is>
       </c>
       <c r="B74" t="b">
@@ -1178,7 +1178,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>chloe_jennings05</t>
+          <t>obadiah.obasuyi</t>
         </is>
       </c>
       <c r="B75" t="b">
@@ -1188,7 +1188,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>maddiburnette</t>
+          <t>sreenidhikannan_</t>
         </is>
       </c>
       <c r="B76" t="b">
@@ -1198,7 +1198,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>ellamorley.8</t>
+          <t>gennaweston</t>
         </is>
       </c>
       <c r="B77" t="b">
@@ -1208,7 +1208,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>fivebutterfliescreations</t>
+          <t>itsivan.903</t>
         </is>
       </c>
       <c r="B78" t="b">
@@ -1218,7 +1218,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>bubbabronco</t>
+          <t>kaelyn_aliyah</t>
         </is>
       </c>
       <c r="B79" t="b">
@@ -1228,7 +1228,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>bkuh</t>
+          <t>jonathan_saguier</t>
         </is>
       </c>
       <c r="B80" t="b">
@@ -1238,7 +1238,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>parisrose0u.xw</t>
+          <t>sohini1728</t>
         </is>
       </c>
       <c r="B81" t="b">
@@ -1248,7 +1248,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>fehr.owen</t>
+          <t>mgstory1</t>
         </is>
       </c>
       <c r="B82" t="b">
@@ -1258,7 +1258,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>atharelhaptana</t>
+          <t>portia.garrett.5</t>
         </is>
       </c>
       <c r="B83" t="b">
@@ -1268,7 +1268,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>elle_d1029</t>
+          <t>harrisonjanke</t>
         </is>
       </c>
       <c r="B84" t="b">
@@ -1278,7 +1278,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>itssarahhildreth</t>
+          <t>rysink4647</t>
         </is>
       </c>
       <c r="B85" t="b">
@@ -1288,7 +1288,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>hannahgriesen</t>
+          <t>masonshermer_9504</t>
         </is>
       </c>
       <c r="B86" t="b">
@@ -1298,7 +1298,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>pimientotearoom</t>
+          <t>throwandsew</t>
         </is>
       </c>
       <c r="B87" t="b">
@@ -1308,7 +1308,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>maryyy_jones</t>
+          <t>calebmcdani</t>
         </is>
       </c>
       <c r="B88" t="b">
@@ -1318,7 +1318,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>isabel.jonessss</t>
+          <t>ncsueats</t>
         </is>
       </c>
       <c r="B89" t="b">
@@ -1328,7 +1328,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>cj_oseiduro05</t>
+          <t>cohen.crotts</t>
         </is>
       </c>
       <c r="B90" t="b">
@@ -1338,7 +1338,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>coleluhrsen</t>
+          <t>_merediththornton_</t>
         </is>
       </c>
       <c r="B91" t="b">
@@ -1348,7 +1348,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>z_clout19</t>
+          <t>meghan.kilduff</t>
         </is>
       </c>
       <c r="B92" t="b">
@@ -1358,7 +1358,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>daviskroeger</t>
+          <t>piper.log</t>
         </is>
       </c>
       <c r="B93" t="b">
@@ -1368,7 +1368,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>haleighaaa_</t>
+          <t>hugh__kennedy_</t>
         </is>
       </c>
       <c r="B94" t="b">
@@ -1378,7 +1378,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>reaganlentz_</t>
+          <t>stuisart4</t>
         </is>
       </c>
       <c r="B95" t="b">
@@ -1388,7 +1388,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>macon_stone</t>
+          <t>nick.vinsonn</t>
         </is>
       </c>
       <c r="B96" t="b">
@@ -1398,7 +1398,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>tkrudi_2</t>
+          <t>mahita98</t>
         </is>
       </c>
       <c r="B97" t="b">
@@ -1408,7 +1408,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>kyleehertrick</t>
+          <t>jillgignac</t>
         </is>
       </c>
       <c r="B98" t="b">
@@ -1418,7 +1418,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>bryanandduke</t>
+          <t>jessica.renee15</t>
         </is>
       </c>
       <c r="B99" t="b">
@@ -1428,7 +1428,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>payton.sheffield</t>
+          <t>dwwballroom</t>
         </is>
       </c>
       <c r="B100" t="b">
@@ -1438,7 +1438,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>analuciawaller</t>
+          <t>janeherringg</t>
         </is>
       </c>
       <c r="B101" t="b">
@@ -1448,7 +1448,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>tanvi.sikka</t>
+          <t>maryj_perry</t>
         </is>
       </c>
       <c r="B102" t="b">
@@ -1458,7 +1458,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>logangetsbusy_</t>
+          <t>king_of_flashcards</t>
         </is>
       </c>
       <c r="B103" t="b">
@@ -1468,7 +1468,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>ava._.blackman</t>
+          <t>bruno.benicio.58555</t>
         </is>
       </c>
       <c r="B104" t="b">
@@ -1478,7 +1478,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>bbrooklynaadams</t>
+          <t>averymalexan</t>
         </is>
       </c>
       <c r="B105" t="b">
@@ -1488,7 +1488,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>juliaacantwell</t>
+          <t>amy26b_</t>
         </is>
       </c>
       <c r="B106" t="b">
@@ -1498,7 +1498,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>greggpclax32</t>
+          <t>taytortott24</t>
         </is>
       </c>
       <c r="B107" t="b">
@@ -1508,7 +1508,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>ssamanthakellyy</t>
+          <t>ardangfredeen</t>
         </is>
       </c>
       <c r="B108" t="b">
@@ -1518,7 +1518,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>nick_shook</t>
+          <t>kendall.clewer</t>
         </is>
       </c>
       <c r="B109" t="b">
@@ -1528,7 +1528,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>oliviaa.mabe</t>
+          <t>kenleypope_</t>
         </is>
       </c>
       <c r="B110" t="b">
@@ -1538,7 +1538,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>vandana.malik</t>
+          <t>fleming.fulford</t>
         </is>
       </c>
       <c r="B111" t="b">
@@ -1548,7 +1548,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>757_ethanelswick</t>
+          <t>kateeberger</t>
         </is>
       </c>
       <c r="B112" t="b">
@@ -1558,7 +1558,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>madisonxturano</t>
+          <t>jordanreid_11</t>
         </is>
       </c>
       <c r="B113" t="b">
@@ -1568,7 +1568,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>tristantaatjes</t>
+          <t>cjbyerly</t>
         </is>
       </c>
       <c r="B114" t="b">
@@ -1578,7 +1578,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>grace.crawforddd</t>
+          <t>lleahcollins</t>
         </is>
       </c>
       <c r="B115" t="b">
@@ -1588,7 +1588,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>raj.dhanjal21</t>
+          <t>amansunkara</t>
         </is>
       </c>
       <c r="B116" t="b">
@@ -1598,7 +1598,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>deniselynngonzalez</t>
+          <t>christianlicary</t>
         </is>
       </c>
       <c r="B117" t="b">
@@ -1608,7 +1608,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>alex.heather16</t>
+          <t>emhiiggins</t>
         </is>
       </c>
       <c r="B118" t="b">
@@ -1618,7 +1618,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>co_ncsu</t>
+          <t>corey.sink</t>
         </is>
       </c>
       <c r="B119" t="b">
@@ -1628,7 +1628,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>kathy_e_lewis</t>
+          <t>maggie.hamiltonnn</t>
         </is>
       </c>
       <c r="B120" t="b">
@@ -1638,7 +1638,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>justneedalatte</t>
+          <t>gracecarolinecross</t>
         </is>
       </c>
       <c r="B121" t="b">
@@ -1648,7 +1648,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>c_q_cumber_</t>
+          <t>laforestryan</t>
         </is>
       </c>
       <c r="B122" t="b">
@@ -1658,7 +1658,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>marabrinton</t>
+          <t>alexwilliamsss._</t>
         </is>
       </c>
       <c r="B123" t="b">
@@ -1668,7 +1668,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>jaribsanderson</t>
+          <t>preetithirukonda</t>
         </is>
       </c>
       <c r="B124" t="b">
@@ -1678,7 +1678,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>maddie.gatlin</t>
+          <t>nickrusso.7</t>
         </is>
       </c>
       <c r="B125" t="b">
@@ -1688,7 +1688,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>maylan.maxwell</t>
+          <t>dawsonmitchell_</t>
         </is>
       </c>
       <c r="B126" t="b">
@@ -1698,7 +1698,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>hannahlangley05</t>
+          <t>memesfortheunpretentious</t>
         </is>
       </c>
       <c r="B127" t="b">
@@ -1708,7 +1708,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>l__ui__s</t>
+          <t>laney__elizabeth</t>
         </is>
       </c>
       <c r="B128" t="b">
@@ -1718,7 +1718,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>_mayalillian_</t>
+          <t>hartleykupiec</t>
         </is>
       </c>
       <c r="B129" t="b">
@@ -1728,7 +1728,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>hannah.zayicek</t>
+          <t>juliahutch29</t>
         </is>
       </c>
       <c r="B130" t="b">
@@ -1738,7 +1738,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>claymartin58.j</t>
+          <t>jtfletch_99</t>
         </is>
       </c>
       <c r="B131" t="b">
@@ -1748,2901 +1748,2901 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>piedpiperpao</t>
+          <t>aubrey.hamiltonn</t>
         </is>
       </c>
       <c r="B132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>terencedignan_</t>
+          <t>zachary.wondracek</t>
         </is>
       </c>
       <c r="B133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>zachary.wondracek</t>
+          <t>lacey_brookek</t>
         </is>
       </c>
       <c r="B134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>sydney_oravsky</t>
+          <t>jade_prio</t>
         </is>
       </c>
       <c r="B135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>jackmilfordd</t>
+          <t>jt_schindler</t>
         </is>
       </c>
       <c r="B136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>lauren.famiglietti</t>
+          <t>oliviaaa.phillips</t>
         </is>
       </c>
       <c r="B137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>_ashlynbrunetti</t>
+          <t>kmt1224</t>
         </is>
       </c>
       <c r="B138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>haydennward</t>
+          <t>nyshita_r</t>
         </is>
       </c>
       <c r="B139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>a_urls</t>
+          <t>sam.foxworth</t>
         </is>
       </c>
       <c r="B140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>zoev.1001</t>
+          <t>chris.zupito</t>
         </is>
       </c>
       <c r="B141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>caroline.boger</t>
+          <t>kathrynbonsted</t>
         </is>
       </c>
       <c r="B142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>tlong_2005</t>
+          <t>always_allyson_</t>
         </is>
       </c>
       <c r="B143" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>alina_jackson_9</t>
+          <t>lindseylettt</t>
         </is>
       </c>
       <c r="B144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>oliviagrace.boyd</t>
+          <t>reginareneecapell</t>
         </is>
       </c>
       <c r="B145" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>_laurenmoreton</t>
+          <t>troy_blackmer</t>
         </is>
       </c>
       <c r="B146" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>bryce.regan</t>
+          <t>nicolle.atencio</t>
         </is>
       </c>
       <c r="B147" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>therealgabbyrose</t>
+          <t>lilly_posada_waller</t>
         </is>
       </c>
       <c r="B148" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>abbyljennings</t>
+          <t>maddieemmett_</t>
         </is>
       </c>
       <c r="B149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>_avalewandowski</t>
+          <t>kash_232</t>
         </is>
       </c>
       <c r="B150" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>carolkellnervallely</t>
+          <t>guicarvalho.06</t>
         </is>
       </c>
       <c r="B151" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>laurengstanley</t>
+          <t>robby.frye</t>
         </is>
       </c>
       <c r="B152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>lucas.mciver</t>
+          <t>ted.bratton</t>
         </is>
       </c>
       <c r="B153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>kevinblngr</t>
+          <t>_lukeshaver</t>
         </is>
       </c>
       <c r="B154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>kenleypope_</t>
+          <t>rohith70v</t>
         </is>
       </c>
       <c r="B155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>carolynle_</t>
+          <t>tate_s._</t>
         </is>
       </c>
       <c r="B156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>danielkornegay4</t>
+          <t>carmen._.shaw</t>
         </is>
       </c>
       <c r="B157" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>danyelle_honeycutt</t>
+          <t>lauren.1075</t>
         </is>
       </c>
       <c r="B158" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>kayleeepowell</t>
+          <t>njwest2000</t>
         </is>
       </c>
       <c r="B159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>jaxson.panko</t>
+          <t>walnutpinkie</t>
         </is>
       </c>
       <c r="B160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>joeyghirardi</t>
+          <t>laurenelliott347</t>
         </is>
       </c>
       <c r="B161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>amara__marie</t>
+          <t>sophia.__huber</t>
         </is>
       </c>
       <c r="B162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>kelseyjackhunter</t>
+          <t>addisonpopee</t>
         </is>
       </c>
       <c r="B163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>maddiehw</t>
+          <t>esa_tahtinen2019</t>
         </is>
       </c>
       <c r="B164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>ryan_koble</t>
+          <t>addison.carlson11</t>
         </is>
       </c>
       <c r="B165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>quinn_milner</t>
+          <t>_rajatsinghhh</t>
         </is>
       </c>
       <c r="B166" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>sliva_marly_art</t>
+          <t>tlong_2005</t>
         </is>
       </c>
       <c r="B167" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>juliarcolee</t>
+          <t>brodyy_kingg</t>
         </is>
       </c>
       <c r="B168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>rohith70v</t>
+          <t>tanishqa.htp</t>
         </is>
       </c>
       <c r="B169" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>ahendo_1108</t>
+          <t>imautumnmarie</t>
         </is>
       </c>
       <c r="B170" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>jacob_s_sigmon</t>
+          <t>kellyyzza</t>
         </is>
       </c>
       <c r="B171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>joshh.vasquez</t>
+          <t>ellarane</t>
         </is>
       </c>
       <c r="B172" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>annalee__blake</t>
+          <t>allie_grace05</t>
         </is>
       </c>
       <c r="B173" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>camrynn.smithh</t>
+          <t>hunter.scott17</t>
         </is>
       </c>
       <c r="B174" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>brookependletonn</t>
+          <t>alexanderclance</t>
         </is>
       </c>
       <c r="B175" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>sam.foxworth</t>
+          <t>herringfayth</t>
         </is>
       </c>
       <c r="B176" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>_.__makenzie__._</t>
+          <t>gabby.l.k</t>
         </is>
       </c>
       <c r="B177" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>kaelyn_aliyah</t>
+          <t>austingrayesink</t>
         </is>
       </c>
       <c r="B178" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>michael.eelsmiller05</t>
+          <t>jennagalofaro</t>
         </is>
       </c>
       <c r="B179" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>laurenborstt</t>
+          <t>ilyk6yla</t>
         </is>
       </c>
       <c r="B180" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>kolkhorstnoah</t>
+          <t>mckennahopkins_</t>
         </is>
       </c>
       <c r="B181" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>elizabeth._.fisher</t>
+          <t>aubrey_sigler</t>
         </is>
       </c>
       <c r="B182" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>zachgottlieb6</t>
+          <t>andrew_graf116</t>
         </is>
       </c>
       <c r="B183" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>julioleon6630</t>
+          <t>claudia.davisss</t>
         </is>
       </c>
       <c r="B184" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>laneyreillyy</t>
+          <t>avamcr3</t>
         </is>
       </c>
       <c r="B185" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>_timyahhh</t>
+          <t>graciestalek</t>
         </is>
       </c>
       <c r="B186" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>lucasbright20</t>
+          <t>trevorblackwelder</t>
         </is>
       </c>
       <c r="B187" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>jennyybutterfield</t>
+          <t>wiley_poss</t>
         </is>
       </c>
       <c r="B188" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>atmdraco26_438</t>
+          <t>rishalsood</t>
         </is>
       </c>
       <c r="B189" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>nadiaslanker99</t>
+          <t>louisberlind</t>
         </is>
       </c>
       <c r="B190" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>mary_23_grace</t>
+          <t>aria.ray17</t>
         </is>
       </c>
       <c r="B191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>hannahkbird</t>
+          <t>kathleen_woodrufff</t>
         </is>
       </c>
       <c r="B192" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>katie_black11</t>
+          <t>jack.bowdish</t>
         </is>
       </c>
       <c r="B193" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>mattedmundson_</t>
+          <t>kenzieleecook</t>
         </is>
       </c>
       <c r="B194" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>andiekaleigh</t>
+          <t>park3rrrrrrrr</t>
         </is>
       </c>
       <c r="B195" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>jack_._fitzpatrick</t>
+          <t>iamoracene</t>
         </is>
       </c>
       <c r="B196" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>rory__condon</t>
+          <t>haleymcgettigan</t>
         </is>
       </c>
       <c r="B197" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>avamcr3</t>
+          <t>carolinemoscaa</t>
         </is>
       </c>
       <c r="B198" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>emmaabeke</t>
+          <t>tyler_moczulski_</t>
         </is>
       </c>
       <c r="B199" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>_alexandra_perkinson_</t>
+          <t>drewszn</t>
         </is>
       </c>
       <c r="B200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>isley.rives</t>
+          <t>john.stultz</t>
         </is>
       </c>
       <c r="B201" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>ella.milak</t>
+          <t>hudsonwill05</t>
         </is>
       </c>
       <c r="B202" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>allie.schott</t>
+          <t>gabbyschoeffel</t>
         </is>
       </c>
       <c r="B203" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>rylie.cora</t>
+          <t>kenziegracere</t>
         </is>
       </c>
       <c r="B204" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>83gillhama</t>
+          <t>mbuffaloe22</t>
         </is>
       </c>
       <c r="B205" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>maddymoss0333</t>
+          <t>jdnizzi</t>
         </is>
       </c>
       <c r="B206" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>ncsu_27</t>
+          <t>meganmurray_1014</t>
         </is>
       </c>
       <c r="B207" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>epsymm</t>
+          <t>_jconstantino</t>
         </is>
       </c>
       <c r="B208" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>hwarkim</t>
+          <t>nardos_eshtu</t>
         </is>
       </c>
       <c r="B209" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>zachpiepho</t>
+          <t>_just.isaac</t>
         </is>
       </c>
       <c r="B210" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>akila.a25</t>
+          <t>kennedy_faucette</t>
         </is>
       </c>
       <c r="B211" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>anya.vanstaagen</t>
+          <t>catherine_malacane</t>
         </is>
       </c>
       <c r="B212" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>mckenizeeee</t>
+          <t>anneliesedicks_</t>
         </is>
       </c>
       <c r="B213" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>loganharmonn</t>
+          <t>marykearhart</t>
         </is>
       </c>
       <c r="B214" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>sept2912</t>
+          <t>hunter.harston</t>
         </is>
       </c>
       <c r="B215" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>corlyjones</t>
+          <t>ttylerstamp</t>
         </is>
       </c>
       <c r="B216" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>lyndsay_clark26</t>
+          <t>jay_linehan17</t>
         </is>
       </c>
       <c r="B217" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>arya_0409</t>
+          <t>molliee.caroline</t>
         </is>
       </c>
       <c r="B218" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>genesismdelgado14</t>
+          <t>cadenwagsy</t>
         </is>
       </c>
       <c r="B219" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>pgupta_8</t>
+          <t>carlylelowe</t>
         </is>
       </c>
       <c r="B220" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>brantley_9419</t>
+          <t>borstjenn</t>
         </is>
       </c>
       <c r="B221" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>mitchell._ledford</t>
+          <t>iannn.smith</t>
         </is>
       </c>
       <c r="B222" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>sam.sunflowers</t>
+          <t>brantleyy.johnson</t>
         </is>
       </c>
       <c r="B223" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>gregg.cowan.32</t>
+          <t>maxhammer8221</t>
         </is>
       </c>
       <c r="B224" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>madalynn5432</t>
+          <t>vance.sigmon</t>
         </is>
       </c>
       <c r="B225" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>julie6084</t>
+          <t>heatheroltmans</t>
         </is>
       </c>
       <c r="B226" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>jacobh.163</t>
+          <t>kmch3ll</t>
         </is>
       </c>
       <c r="B227" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>maggie.hamiltonnn</t>
+          <t>bronson_shepherdd</t>
         </is>
       </c>
       <c r="B228" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>jenkinsisaac984</t>
+          <t>kinley._f</t>
         </is>
       </c>
       <c r="B229" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>themarcossmith</t>
+          <t>n.torn23</t>
         </is>
       </c>
       <c r="B230" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>lily_adkins_</t>
+          <t>isabella_andersson03</t>
         </is>
       </c>
       <c r="B231" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>a2fncsu</t>
+          <t>jennamoody13</t>
         </is>
       </c>
       <c r="B232" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>carsonivy_</t>
+          <t>geethree_on_insta</t>
         </is>
       </c>
       <c r="B233" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>weston_amandeep</t>
+          <t>catie_canova</t>
         </is>
       </c>
       <c r="B234" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>emmaxxdawson</t>
+          <t>sophiemcree</t>
         </is>
       </c>
       <c r="B235" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>ka._.chow</t>
+          <t>raegen.sutton</t>
         </is>
       </c>
       <c r="B236" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>sammi.schoppe</t>
+          <t>riley_moore2808</t>
         </is>
       </c>
       <c r="B237" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>amber.mcnamaraa</t>
+          <t>ethanhastingss</t>
         </is>
       </c>
       <c r="B238" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>evhancock4</t>
+          <t>kevin.is.asian</t>
         </is>
       </c>
       <c r="B239" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>avery.hoch</t>
+          <t>bucca_a_a</t>
         </is>
       </c>
       <c r="B240" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>agc.ashlyn</t>
+          <t>leah.gosselin</t>
         </is>
       </c>
       <c r="B241" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>ncsuquirks</t>
+          <t>mayleighy</t>
         </is>
       </c>
       <c r="B242" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>kateschaffer_</t>
+          <t>zach.laxton</t>
         </is>
       </c>
       <c r="B243" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>brenna_goebel</t>
+          <t>yagirljordo</t>
         </is>
       </c>
       <c r="B244" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>tmichellecooley</t>
+          <t>wahab_adebayor</t>
         </is>
       </c>
       <c r="B245" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>chloeevans_hey</t>
+          <t>makenna.edwardss</t>
         </is>
       </c>
       <c r="B246" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>aryanlovesmath</t>
+          <t>d_il_l</t>
         </is>
       </c>
       <c r="B247" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>fionasharpp</t>
+          <t>syltrussmaster</t>
         </is>
       </c>
       <c r="B248" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>avahoch3</t>
+          <t>christyp579</t>
         </is>
       </c>
       <c r="B249" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>lexiraecherry</t>
+          <t>mackenziechorze</t>
         </is>
       </c>
       <c r="B250" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>kensington.hope</t>
+          <t>nikitanagendra</t>
         </is>
       </c>
       <c r="B251" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>ella.doby</t>
+          <t>annsleighrouse</t>
         </is>
       </c>
       <c r="B252" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>katienwilsonn</t>
+          <t>chiefpesoss</t>
         </is>
       </c>
       <c r="B253" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>tate_s._</t>
+          <t>iamadeltadiva</t>
         </is>
       </c>
       <c r="B254" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>nikkirobertsjacobs</t>
+          <t>anna_crowther_</t>
         </is>
       </c>
       <c r="B255" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>thomasgurleyy</t>
+          <t>sam_mazza22</t>
         </is>
       </c>
       <c r="B256" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>_kyrajames</t>
+          <t>lawkitchin</t>
         </is>
       </c>
       <c r="B257" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>ameliavitello</t>
+          <t>luker55_</t>
         </is>
       </c>
       <c r="B258" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>eferg.27</t>
+          <t>nivedaa.m</t>
         </is>
       </c>
       <c r="B259" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>ellieburnetttt</t>
+          <t>chloeyeagley_</t>
         </is>
       </c>
       <c r="B260" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>kripapatelx</t>
+          <t>catherine_evagrace</t>
         </is>
       </c>
       <c r="B261" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>han.forness</t>
+          <t>peytoncnance</t>
         </is>
       </c>
       <c r="B262" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>carmen._.shaw</t>
+          <t>joshmturner_</t>
         </is>
       </c>
       <c r="B263" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>lindak.cornelius</t>
+          <t>ellagbm</t>
         </is>
       </c>
       <c r="B264" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>annakatemabie</t>
+          <t>rileygladden</t>
         </is>
       </c>
       <c r="B265" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>gabivelezzz</t>
+          <t>cbock28</t>
         </is>
       </c>
       <c r="B266" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>samanthaschmittt</t>
+          <t>reid_hudson2</t>
         </is>
       </c>
       <c r="B267" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>rachelbroza</t>
+          <t>jxsh.clay</t>
         </is>
       </c>
       <c r="B268" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>elladouglas43</t>
+          <t>powellholdenn</t>
         </is>
       </c>
       <c r="B269" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>williamlaymann</t>
+          <t>jacktobin_9</t>
         </is>
       </c>
       <c r="B270" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>e.mcrae28</t>
+          <t>maddymoss0333</t>
         </is>
       </c>
       <c r="B271" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>your350z</t>
+          <t>savannahgjordan</t>
         </is>
       </c>
       <c r="B272" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>lauren.rousos</t>
+          <t>dawson.valley</t>
         </is>
       </c>
       <c r="B273" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>_ciaralucey</t>
+          <t>samanthaschmittt</t>
         </is>
       </c>
       <c r="B274" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>diddydorian</t>
+          <t>beth_glasgow1</t>
         </is>
       </c>
       <c r="B275" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>mochi_not_for_dessert_tho</t>
+          <t>mikyla_ruhland</t>
         </is>
       </c>
       <c r="B276" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>paytonnchapman</t>
+          <t>evan_skanes</t>
         </is>
       </c>
       <c r="B277" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>rico.abelson</t>
+          <t>cameronjjoness</t>
         </is>
       </c>
       <c r="B278" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>shyking93</t>
+          <t>parislewisss</t>
         </is>
       </c>
       <c r="B279" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>lauren.1075</t>
+          <t>debo_.03</t>
         </is>
       </c>
       <c r="B280" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>rion.webre</t>
+          <t>justinb_19</t>
         </is>
       </c>
       <c r="B281" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>henry.conway2</t>
+          <t>emilyysouthern</t>
         </is>
       </c>
       <c r="B282" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>sunithakiran45</t>
+          <t>abbyljennings</t>
         </is>
       </c>
       <c r="B283" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>zi.morii</t>
+          <t>anshkapasi_09</t>
         </is>
       </c>
       <c r="B284" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>docta_solo</t>
+          <t>lindleyw14</t>
         </is>
       </c>
       <c r="B285" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>jonathanchaps</t>
+          <t>mollsmccleary13</t>
         </is>
       </c>
       <c r="B286" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>_emilyholland</t>
+          <t>eva.schechtman</t>
         </is>
       </c>
       <c r="B287" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>maryfregg</t>
+          <t>julia.jsl</t>
         </is>
       </c>
       <c r="B288" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>mystic_khang</t>
+          <t>julia.herman24</t>
         </is>
       </c>
       <c r="B289" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>_fw.gabe</t>
+          <t>abbey_elizabeth03</t>
         </is>
       </c>
       <c r="B290" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>aubrey_sigler</t>
+          <t>pollock.cooper</t>
         </is>
       </c>
       <c r="B291" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>ivyladd</t>
+          <t>brewer.best</t>
         </is>
       </c>
       <c r="B292" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>sethramey05</t>
+          <t>_.brit_03._</t>
         </is>
       </c>
       <c r="B293" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>ava_brinson</t>
+          <t>estuck05</t>
         </is>
       </c>
       <c r="B294" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>_audrey.h_</t>
+          <t>willlin_wei</t>
         </is>
       </c>
       <c r="B295" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>addison.carlson11</t>
+          <t>reidmarshburn</t>
         </is>
       </c>
       <c r="B296" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>jblankenberg75</t>
+          <t>jacob_hinson04</t>
         </is>
       </c>
       <c r="B297" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>leahjbrown21</t>
+          <t>payton.janeshak</t>
         </is>
       </c>
       <c r="B298" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>avery__alease</t>
+          <t>piper_rio55</t>
         </is>
       </c>
       <c r="B299" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>evan_skanes</t>
+          <t>connorcorrigan917</t>
         </is>
       </c>
       <c r="B300" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>grant.penley</t>
+          <t>nikkipowell12</t>
         </is>
       </c>
       <c r="B301" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>paul_modland</t>
+          <t>kellon.ck</t>
         </is>
       </c>
       <c r="B302" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>jia_.7y</t>
+          <t>cdphillips05</t>
         </is>
       </c>
       <c r="B303" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>sofia_cagnoni</t>
+          <t>madison_martin_21</t>
         </is>
       </c>
       <c r="B304" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>hayden_williams10</t>
+          <t>bobromhal</t>
         </is>
       </c>
       <c r="B305" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>colerogers8229</t>
+          <t>the.catemckenna</t>
         </is>
       </c>
       <c r="B306" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>judestilwell</t>
+          <t>calebelliottt</t>
         </is>
       </c>
       <c r="B307" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>hannah_jibril</t>
+          <t>_emilyholland</t>
         </is>
       </c>
       <c r="B308" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>_leilamason_</t>
+          <t>ginnywalz</t>
         </is>
       </c>
       <c r="B309" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>natewest6</t>
+          <t>hayden.hughess</t>
         </is>
       </c>
       <c r="B310" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>veronikabayzer</t>
+          <t>elza_dougie</t>
         </is>
       </c>
       <c r="B311" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>sandyoconnor1961</t>
+          <t>loganjones_01</t>
         </is>
       </c>
       <c r="B312" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>mr.wick620</t>
+          <t>payton.sheffield</t>
         </is>
       </c>
       <c r="B313" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>kmorrow157</t>
+          <t>flo__bgr_</t>
         </is>
       </c>
       <c r="B314" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>_julia.elise_</t>
+          <t>_.kenziebradley</t>
         </is>
       </c>
       <c r="B315" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>mahita98</t>
+          <t>owen.ordess7</t>
         </is>
       </c>
       <c r="B316" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>emma.ellington</t>
+          <t>alexis.marie.29</t>
         </is>
       </c>
       <c r="B317" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>coltonsummers7</t>
+          <t>amara__marie</t>
         </is>
       </c>
       <c r="B318" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>graceconlann</t>
+          <t>mollysuesmithh</t>
         </is>
       </c>
       <c r="B319" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>maddieottt</t>
+          <t>_emma_everette</t>
         </is>
       </c>
       <c r="B320" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>jack_sue01</t>
+          <t>katelindorn</t>
         </is>
       </c>
       <c r="B321" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>masonshermer_9504</t>
+          <t>_lolascrafts</t>
         </is>
       </c>
       <c r="B322" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>mac.allen22</t>
+          <t>_gabrial.corley_</t>
         </is>
       </c>
       <c r="B323" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>gerrod.j</t>
+          <t>madisonlsmith07</t>
         </is>
       </c>
       <c r="B324" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>owenanderson63</t>
+          <t>jonathan_trautner</t>
         </is>
       </c>
       <c r="B325" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>bridgencsu</t>
+          <t>ophifidi</t>
         </is>
       </c>
       <c r="B326" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>raleighva</t>
+          <t>lilaweav</t>
         </is>
       </c>
       <c r="B327" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>dhruvamahadevan26</t>
+          <t>drewbrittt</t>
         </is>
       </c>
       <c r="B328" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>connerraewilliams</t>
+          <t>peytonpaschall</t>
         </is>
       </c>
       <c r="B329" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>diego_bldrss</t>
+          <t>sophiecasee</t>
         </is>
       </c>
       <c r="B330" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>kendall.clewer</t>
+          <t>a.dime.of.ylime</t>
         </is>
       </c>
       <c r="B331" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>fiona.stewartt</t>
+          <t>maggie.jane.love</t>
         </is>
       </c>
       <c r="B332" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>m.t.belin</t>
+          <t>leereinstein</t>
         </is>
       </c>
       <c r="B333" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>gzmj3s</t>
+          <t>culler_combs</t>
         </is>
       </c>
       <c r="B334" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>fernandaammore</t>
+          <t>w36190000</t>
         </is>
       </c>
       <c r="B335" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>quinn.mullins</t>
+          <t>emmagray_w</t>
         </is>
       </c>
       <c r="B336" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>king_of_flashcards</t>
+          <t>chas3alford</t>
         </is>
       </c>
       <c r="B337" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>lilyefox</t>
+          <t>ava.guadagno</t>
         </is>
       </c>
       <c r="B338" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>molly.kraska</t>
+          <t>alexvtran04</t>
         </is>
       </c>
       <c r="B339" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>bddb7526</t>
+          <t>iyariw_</t>
         </is>
       </c>
       <c r="B340" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>just_in_pak</t>
+          <t>lysenko.liliya</t>
         </is>
       </c>
       <c r="B341" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>kk_janae</t>
+          <t>hayden_williams10</t>
         </is>
       </c>
       <c r="B342" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>cooperblanton11</t>
+          <t>emmalineghill</t>
         </is>
       </c>
       <c r="B343" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>mikek9547</t>
+          <t>shelby331</t>
         </is>
       </c>
       <c r="B344" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>anarayanan1278</t>
+          <t>gracee_mitchelll</t>
         </is>
       </c>
       <c r="B345" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>shervert13</t>
+          <t>drewsvon51</t>
         </is>
       </c>
       <c r="B346" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>braden_brown0308</t>
+          <t>jaysa.causby</t>
         </is>
       </c>
       <c r="B347" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>emilyyhalford</t>
+          <t>carlie_2117</t>
         </is>
       </c>
       <c r="B348" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>kroan_37</t>
+          <t>dylan.byard</t>
         </is>
       </c>
       <c r="B349" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>angelina.cinelli</t>
+          <t>ellison.sheppard</t>
         </is>
       </c>
       <c r="B350" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>tamrynlael</t>
+          <t>lauren.rousos</t>
         </is>
       </c>
       <c r="B351" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>gavingeldbach</t>
+          <t>lilyshuping</t>
         </is>
       </c>
       <c r="B352" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>omi_.555</t>
+          <t>graciep_40</t>
         </is>
       </c>
       <c r="B353" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>brantleyy.johnson</t>
+          <t>sophia_nashh</t>
         </is>
       </c>
       <c r="B354" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>belladesousa_</t>
+          <t>zoepureza</t>
         </is>
       </c>
       <c r="B355" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>adrie_w99</t>
+          <t>b.friscia_</t>
         </is>
       </c>
       <c r="B356" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>emilyktaylor</t>
+          <t>roberth_812</t>
         </is>
       </c>
       <c r="B357" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>jaleahh.xo</t>
+          <t>abparker.3</t>
         </is>
       </c>
       <c r="B358" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>tylerstrickland8</t>
+          <t>summerrkinard</t>
         </is>
       </c>
       <c r="B359" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>nickk_gg_</t>
+          <t>hannah.zayicek</t>
         </is>
       </c>
       <c r="B360" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>annakzimmerman</t>
+          <t>grewdalvin</t>
         </is>
       </c>
       <c r="B361" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>theoneseason_</t>
+          <t>caren_andreaz</t>
         </is>
       </c>
       <c r="B362" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>carolinathriftin</t>
+          <t>sofiagillespiee</t>
         </is>
       </c>
       <c r="B363" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>mptrigga</t>
+          <t>harperdechant</t>
         </is>
       </c>
       <c r="B364" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>graciee.baker</t>
+          <t>abbebharris</t>
         </is>
       </c>
       <c r="B365" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>graciep_40</t>
+          <t>_.nayeli._r</t>
         </is>
       </c>
       <c r="B366" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>sundowncove</t>
+          <t>ava_tate</t>
         </is>
       </c>
       <c r="B367" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>vic.m05</t>
+          <t>molllyspang</t>
         </is>
       </c>
       <c r="B368" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>grant.goodman04</t>
+          <t>geerstewart</t>
         </is>
       </c>
       <c r="B369" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>samantha.nelsonn</t>
+          <t>sarah_grace_simas</t>
         </is>
       </c>
       <c r="B370" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>ayden_coleman</t>
+          <t>chloeburnssss</t>
         </is>
       </c>
       <c r="B371" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>pad.katy</t>
+          <t>hans.sakala</t>
         </is>
       </c>
       <c r="B372" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>wyatt.harbaugh</t>
+          <t>savannah_spears25</t>
         </is>
       </c>
       <c r="B373" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>marinaa.khann</t>
+          <t>anna.gracec</t>
         </is>
       </c>
       <c r="B374" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>tysonholloway05</t>
+          <t>_jonathancoreas_</t>
         </is>
       </c>
       <c r="B375" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>bucca_a_a</t>
+          <t>henry_odland</t>
         </is>
       </c>
       <c r="B376" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>ncsu.27</t>
+          <t>juliana_bzago</t>
         </is>
       </c>
       <c r="B377" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>alliedwalsh</t>
+          <t>charliepgreene</t>
         </is>
       </c>
       <c r="B378" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>walkersell</t>
+          <t>madkoontz12</t>
         </is>
       </c>
       <c r="B379" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>lydiaball0726</t>
+          <t>emma.ellington</t>
         </is>
       </c>
       <c r="B380" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>kmb.obrien</t>
+          <t>marywest.13</t>
         </is>
       </c>
       <c r="B381" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>ben.cohn</t>
+          <t>laney.watts</t>
         </is>
       </c>
       <c r="B382" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>elijah_pritchard</t>
+          <t>agc.ashlyn</t>
         </is>
       </c>
       <c r="B383" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>ncsuthetachi</t>
+          <t>cooper_put</t>
         </is>
       </c>
       <c r="B384" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>juliafrantz_</t>
+          <t>jhmatz5</t>
         </is>
       </c>
       <c r="B385" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>ansleyhorne</t>
+          <t>a_riggs057</t>
         </is>
       </c>
       <c r="B386" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>tindratramontano</t>
+          <t>sofia_cagnoni</t>
         </is>
       </c>
       <c r="B387" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>catherinekametches</t>
+          <t>avakells</t>
         </is>
       </c>
       <c r="B388" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>benito.perez3</t>
+          <t>charlierobertson541</t>
         </is>
       </c>
       <c r="B389" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>brooksisear</t>
+          <t>jennyybutterfield</t>
         </is>
       </c>
       <c r="B390" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>r_m_s21</t>
+          <t>zach.norman46</t>
         </is>
       </c>
       <c r="B391" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>taylorherriing</t>
+          <t>mary_23_grace</t>
         </is>
       </c>
       <c r="B392" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>allisonkpotter_</t>
+          <t>alexcutcliff</t>
         </is>
       </c>
       <c r="B393" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>mollyerwiin</t>
+          <t>deniselynngonzalez</t>
         </is>
       </c>
       <c r="B394" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>aubrey.hamiltonn</t>
+          <t>zel.ali_9</t>
         </is>
       </c>
       <c r="B395" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>riley_mckee_14</t>
+          <t>alex.heather16</t>
         </is>
       </c>
       <c r="B396" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>jakelfit</t>
+          <t>haydennward</t>
         </is>
       </c>
       <c r="B397" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>sydniturnerr</t>
+          <t>david.mmo</t>
         </is>
       </c>
       <c r="B398" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>william_brooks95</t>
+          <t>nicole_adolf7</t>
         </is>
       </c>
       <c r="B399" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>phoebemurphy05</t>
+          <t>evphong</t>
         </is>
       </c>
       <c r="B400" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>angelina.maganaa</t>
+          <t>auston_.6</t>
         </is>
       </c>
       <c r="B401" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>ncsupike</t>
+          <t>rachelutleyy</t>
         </is>
       </c>
       <c r="B402" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>molllyspang</t>
+          <t>amanda_lopeman4513</t>
         </is>
       </c>
       <c r="B403" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>tgrubb31</t>
+          <t>calebchandler_24</t>
         </is>
       </c>
       <c r="B404" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>bryson.andrews</t>
+          <t>samspig</t>
         </is>
       </c>
       <c r="B405" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>lmartin612</t>
+          <t>leahlidetab</t>
         </is>
       </c>
       <c r="B406" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>emilyysouthern</t>
+          <t>joeyghirardi</t>
         </is>
       </c>
       <c r="B407" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>kayladinolfo</t>
+          <t>miles_mats0n</t>
         </is>
       </c>
       <c r="B408" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>pollock.cooper</t>
+          <t>laurenborstt</t>
         </is>
       </c>
       <c r="B409" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>jacobxgarrett</t>
+          <t>bellaa.kath</t>
         </is>
       </c>
       <c r="B410" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>lucasyavelak</t>
+          <t>sarabeckpruitt</t>
         </is>
       </c>
       <c r="B411" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>makenna.edwardss</t>
+          <t>_gracie.c</t>
         </is>
       </c>
       <c r="B412" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>lexi.efland</t>
+          <t>_jacobmares</t>
         </is>
       </c>
       <c r="B413" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>xdixon71</t>
+          <t>drew._casey</t>
         </is>
       </c>
       <c r="B414" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>_just.isaac</t>
+          <t>kasey_fm</t>
         </is>
       </c>
       <c r="B415" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>hwillii</t>
+          <t>rohan_agni18</t>
         </is>
       </c>
       <c r="B416" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>tj_betts3</t>
+          <t>adali.guilara</t>
         </is>
       </c>
       <c r="B417" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>luker55_</t>
+          <t>tyler.smith.97</t>
         </is>
       </c>
       <c r="B418" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>emmaseales</t>
+          <t>kaylie.pegram</t>
         </is>
       </c>
       <c r="B419" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>ncsudeltaupsilon</t>
+          <t>david_gardner422</t>
         </is>
       </c>
       <c r="B420" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>857mary_newman</t>
+          <t>reevescaporicci</t>
         </is>
       </c>
       <c r="B421" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422">
@@ -4652,537 +4652,257 @@
         </is>
       </c>
       <c r="B422" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>zane_kountis</t>
+          <t>cammichalak_</t>
         </is>
       </c>
       <c r="B423" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>renenicolas448_</t>
+          <t>ca_alia</t>
         </is>
       </c>
       <c r="B424" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>kinsey.spear</t>
+          <t>grace.giordanelli</t>
         </is>
       </c>
       <c r="B425" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>hayden.hughess</t>
+          <t>sammi.schoppe</t>
         </is>
       </c>
       <c r="B426" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>ericsk24</t>
+          <t>savannahhart12</t>
         </is>
       </c>
       <c r="B427" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>gabriel_dwest</t>
+          <t>elenavrettos</t>
         </is>
       </c>
       <c r="B428" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>mia.kuharcik</t>
+          <t>maxxhines</t>
         </is>
       </c>
       <c r="B429" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>ncfordc</t>
+          <t>lizbadin</t>
         </is>
       </c>
       <c r="B430" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>mayleighy</t>
+          <t>meredithwyatttt</t>
         </is>
       </c>
       <c r="B431" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>chloeybutler</t>
+          <t>m_sierra26</t>
         </is>
       </c>
       <c r="B432" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>alexmunz1</t>
+          <t>tay.hardman</t>
         </is>
       </c>
       <c r="B433" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>drew._casey</t>
+          <t>mollykoonce</t>
         </is>
       </c>
       <c r="B434" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>peytonnsharp</t>
+          <t>bradensweatt</t>
         </is>
       </c>
       <c r="B435" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>livi18_</t>
+          <t>_ellie.larsen_</t>
         </is>
       </c>
       <c r="B436" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>meekmeek73</t>
+          <t>anna_kate_05</t>
         </is>
       </c>
       <c r="B437" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>setaytay_n</t>
+          <t>katlynvernon</t>
         </is>
       </c>
       <c r="B438" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>laylaafostekk</t>
+          <t>ale.giovaaa</t>
         </is>
       </c>
       <c r="B439" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>malach7604</t>
+          <t>__bstrong__</t>
         </is>
       </c>
       <c r="B440" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>lukegagnon05</t>
+          <t>sheahoffacker</t>
         </is>
       </c>
       <c r="B441" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>owen.stjohn</t>
+          <t>deltasigncsu</t>
         </is>
       </c>
       <c r="B442" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>ebosearhuidese</t>
+          <t>beef_the_cow_ncsu</t>
         </is>
       </c>
       <c r="B443" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>hudsonstalun</t>
+          <t>austin.ashburn</t>
         </is>
       </c>
       <c r="B444" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>matt_kg04</t>
+          <t>sophieclarrkk</t>
         </is>
       </c>
       <c r="B445" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>summer.kelso_</t>
+          <t>elyserylance</t>
         </is>
       </c>
       <c r="B446" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>sean.seligman45</t>
+          <t>srichardson11</t>
         </is>
       </c>
       <c r="B447" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="448">
-      <c r="A448" t="inlineStr">
-        <is>
-          <t>siembkt</t>
-        </is>
-      </c>
-      <c r="B448" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="449">
-      <c r="A449" t="inlineStr">
-        <is>
-          <t>will_rehrey</t>
-        </is>
-      </c>
-      <c r="B449" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="450">
-      <c r="A450" t="inlineStr">
-        <is>
-          <t>carolyn.does.art</t>
-        </is>
-      </c>
-      <c r="B450" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="451">
-      <c r="A451" t="inlineStr">
-        <is>
-          <t>savannahp_8</t>
-        </is>
-      </c>
-      <c r="B451" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="452">
-      <c r="A452" t="inlineStr">
-        <is>
-          <t>alexa_stabes</t>
-        </is>
-      </c>
-      <c r="B452" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="453">
-      <c r="A453" t="inlineStr">
-        <is>
-          <t>samantha.nonigo</t>
-        </is>
-      </c>
-      <c r="B453" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="454">
-      <c r="A454" t="inlineStr">
-        <is>
-          <t>brian.keller.146</t>
-        </is>
-      </c>
-      <c r="B454" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="455">
-      <c r="A455" t="inlineStr">
-        <is>
-          <t>cpdanielmd</t>
-        </is>
-      </c>
-      <c r="B455" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="456">
-      <c r="A456" t="inlineStr">
-        <is>
-          <t>ncsu.nc14</t>
-        </is>
-      </c>
-      <c r="B456" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="457">
-      <c r="A457" t="inlineStr">
-        <is>
-          <t>natalie.phalen</t>
-        </is>
-      </c>
-      <c r="B457" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="458">
-      <c r="A458" t="inlineStr">
-        <is>
-          <t>highrollersofnc</t>
-        </is>
-      </c>
-      <c r="B458" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="459">
-      <c r="A459" t="inlineStr">
-        <is>
-          <t>madelyn.haller</t>
-        </is>
-      </c>
-      <c r="B459" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="460">
-      <c r="A460" t="inlineStr">
-        <is>
-          <t>ncsumoneyman701</t>
-        </is>
-      </c>
-      <c r="B460" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="461">
-      <c r="A461" t="inlineStr">
-        <is>
-          <t>egsmith145</t>
-        </is>
-      </c>
-      <c r="B461" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="462">
-      <c r="A462" t="inlineStr">
-        <is>
-          <t>tillasegrave</t>
-        </is>
-      </c>
-      <c r="B462" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="463">
-      <c r="A463" t="inlineStr">
-        <is>
-          <t>danieleverhart04</t>
-        </is>
-      </c>
-      <c r="B463" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="464">
-      <c r="A464" t="inlineStr">
-        <is>
-          <t>jax_powell05</t>
-        </is>
-      </c>
-      <c r="B464" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="465">
-      <c r="A465" t="inlineStr">
-        <is>
-          <t>shsmith719</t>
-        </is>
-      </c>
-      <c r="B465" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="466">
-      <c r="A466" t="inlineStr">
-        <is>
-          <t>evanccummings</t>
-        </is>
-      </c>
-      <c r="B466" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="467">
-      <c r="A467" t="inlineStr">
-        <is>
-          <t>336.samir</t>
-        </is>
-      </c>
-      <c r="B467" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="468">
-      <c r="A468" t="inlineStr">
-        <is>
-          <t>catie_canova</t>
-        </is>
-      </c>
-      <c r="B468" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="469">
-      <c r="A469" t="inlineStr">
-        <is>
-          <t>_merediththornton_</t>
-        </is>
-      </c>
-      <c r="B469" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="470">
-      <c r="A470" t="inlineStr">
-        <is>
-          <t>thomasmclifton</t>
-        </is>
-      </c>
-      <c r="B470" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="471">
-      <c r="A471" t="inlineStr">
-        <is>
-          <t>averydudley_05</t>
-        </is>
-      </c>
-      <c r="B471" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="472">
-      <c r="A472" t="inlineStr">
-        <is>
-          <t>carson.isabella</t>
-        </is>
-      </c>
-      <c r="B472" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="473">
-      <c r="A473" t="inlineStr">
-        <is>
-          <t>is_spears_</t>
-        </is>
-      </c>
-      <c r="B473" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="474">
-      <c r="A474" t="inlineStr">
-        <is>
-          <t>kaylaxlucas</t>
-        </is>
-      </c>
-      <c r="B474" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="475">
-      <c r="A475" t="inlineStr">
-        <is>
-          <t>ben_martinn1</t>
-        </is>
-      </c>
-      <c r="B475" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
